--- a/static/excel-files/atlas-mitigations.xlsx
+++ b/static/excel-files/atlas-mitigations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="356">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>AML.M0005</t>
   </si>
   <si>
+    <t>AML.M0019</t>
+  </si>
+  <si>
     <t>AML.M0012</t>
   </si>
   <si>
@@ -98,61 +101,64 @@
     <t>AML.M0016</t>
   </si>
   <si>
-    <t>course-of-action--825f21ab-f3c9-46ce-b539-28f295f519f8</t>
-  </si>
-  <si>
-    <t>course-of-action--c55ed072-eca7-41d6-b5e0-68c10753544d</t>
-  </si>
-  <si>
-    <t>course-of-action--da785068-ece5-4c52-b77d-39e1b24cb6d7</t>
-  </si>
-  <si>
-    <t>course-of-action--8bba19a7-fc6f-4381-8b34-2d43cdc14627</t>
-  </si>
-  <si>
-    <t>course-of-action--88aea80f-498f-403d-b82f-e76c44f9da94</t>
-  </si>
-  <si>
-    <t>course-of-action--c0f65fa8-8e05-4481-b934-ff2c452ae8c3</t>
-  </si>
-  <si>
-    <t>course-of-action--0b016f6f-2f61-493c-bf9d-02cad4c027df</t>
-  </si>
-  <si>
-    <t>course-of-action--79316871-3bf9-4a59-b517-b0156e84fcb4</t>
-  </si>
-  <si>
-    <t>course-of-action--04e9bb75-1b7e-4825-bc3f-774850d3c1ef</t>
-  </si>
-  <si>
-    <t>course-of-action--6b53cb14-eade-4760-8dae-75164e62cb7e</t>
-  </si>
-  <si>
-    <t>course-of-action--6cd8c9ca-bd46-489f-9ccb-5b76b8ef580e</t>
-  </si>
-  <si>
-    <t>course-of-action--4a048bfe-dab5-434b-86cc-f4586951ec0d</t>
-  </si>
-  <si>
-    <t>course-of-action--7e20b527-6299-4ee3-863e-59fee7cdaa9a</t>
-  </si>
-  <si>
-    <t>course-of-action--de7a696b-f688-454c-bf61-476a68b50e9f</t>
-  </si>
-  <si>
-    <t>course-of-action--532918ce-83cf-4f6f-86fa-8ad4024e91ab</t>
-  </si>
-  <si>
-    <t>course-of-action--8c2cb25a-46b0-4551-beeb-21e8425a48bd</t>
-  </si>
-  <si>
-    <t>course-of-action--32bd077a-90ce-4e97-ad40-8f130a1a7dab</t>
-  </si>
-  <si>
-    <t>course-of-action--a861f658-4203-48ba-bdca-fe068518eefb</t>
-  </si>
-  <si>
-    <t>course-of-action--e2cb599d-2714-4673-bc1a-976c471d7c58</t>
+    <t>course-of-action--37862c51-9708-45b5-b5a9-2ced6b96a68f</t>
+  </si>
+  <si>
+    <t>course-of-action--18bc0088-18e3-4574-9381-15609c31ceb0</t>
+  </si>
+  <si>
+    <t>course-of-action--4183e593-214b-4ed5-9502-6e8521d520b5</t>
+  </si>
+  <si>
+    <t>course-of-action--c240c5a6-335d-4b63-8a19-3a580f503554</t>
+  </si>
+  <si>
+    <t>course-of-action--007dbf17-b2dd-4f64-9a19-14ac15f48167</t>
+  </si>
+  <si>
+    <t>course-of-action--0df12e98-f47a-4126-8512-ff573cbfb6ea</t>
+  </si>
+  <si>
+    <t>course-of-action--a36f50c4-0980-4431-bd60-40fab20d484f</t>
+  </si>
+  <si>
+    <t>course-of-action--421d1626-df4b-4b92-86d7-e52fe8fee878</t>
+  </si>
+  <si>
+    <t>course-of-action--bd372226-3ba2-42c8-b3f0-2d626b2bf371</t>
+  </si>
+  <si>
+    <t>course-of-action--715592a1-75ba-4dc8-bf6b-68536514fb6c</t>
+  </si>
+  <si>
+    <t>course-of-action--034ac08c-c7bc-4480-964d-fe38d95cd72b</t>
+  </si>
+  <si>
+    <t>course-of-action--b42ad31a-c1af-4ad2-bf02-645f7067f5ee</t>
+  </si>
+  <si>
+    <t>course-of-action--8a2bc097-241b-4f3f-918f-73f69870991b</t>
+  </si>
+  <si>
+    <t>course-of-action--dadd5d29-8028-4363-8588-adc91ccda11d</t>
+  </si>
+  <si>
+    <t>course-of-action--61fec3f7-9ec5-419c-9cc3-28af52b4bd7a</t>
+  </si>
+  <si>
+    <t>course-of-action--e2578c53-56ee-411e-857f-7df0a8c0cb67</t>
+  </si>
+  <si>
+    <t>course-of-action--81b36332-b327-4f81-8017-73c70fe05de8</t>
+  </si>
+  <si>
+    <t>course-of-action--e718dbef-3905-4a58-9995-2e4c4f57e6f9</t>
+  </si>
+  <si>
+    <t>course-of-action--51811258-1da9-4724-95b0-06b4eebda05e</t>
+  </si>
+  <si>
+    <t>course-of-action--7d428c47-7519-4350-9230-f0ac2e108232</t>
   </si>
   <si>
     <t>Adversarial Input Detection</t>
@@ -162,6 +168,9 @@
   </si>
   <si>
     <t>Control Access to ML Models and Data at Rest</t>
+  </si>
+  <si>
+    <t>Control Access to ML Models and Data in Production</t>
   </si>
   <si>
     <t>Encrypt Sensitive Information</t>
@@ -225,6 +234,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Require users to verify their identities before accessing a production model.
+Require authentication for API endpoints and monitor production model queries to ensure compliance with usage policies and to prevent model misuse.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encrypt sensitive data such as ML models to protect against adversaries attempting to access sensitive data.
 </t>
   </si>
@@ -241,7 +255,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system. Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+    <t xml:space="preserve">Deploying ML models to edge devices can increase the attack surface of the system.
+Consider serving models in the cloud to reduce the level of access the adversary has to the model.
+Also consider computing features in the cloud to prevent gray-box attacks, where an adversary has access to the model preprocessing methods.
 </t>
   </si>
   <si>
@@ -280,6 +296,7 @@
   </si>
   <si>
     <t xml:space="preserve">Validate that machine learning models perform as intended by testing for backdoor triggers or adversarial bias.
+Monitor model for concept drift and training data drift, which may indicate data tampering and poisoning.
 </t>
   </si>
   <si>
@@ -289,6 +306,7 @@
   <si>
     <t xml:space="preserve">Vulnerability scanning is used to find potentially exploitable software vulnerabilities to remediate them.
 File formats such as pickle files that are commonly used to store machine learning models can contain exploits that allow for arbitrary code execution.
+Both model artifacts and downstream products produced by models should be scanned for known vulnerabilities.
 </t>
   </si>
   <si>
@@ -301,6 +319,9 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0005</t>
   </si>
   <si>
+    <t>https://atlas.mitre.org/mitigations/AML.M0019</t>
+  </si>
+  <si>
     <t>https://atlas.mitre.org/mitigations/AML.M0012</t>
   </si>
   <si>
@@ -349,7 +370,7 @@
     <t>https://atlas.mitre.org/mitigations/AML.M0016</t>
   </si>
   <si>
-    <t>31 October 2023</t>
+    <t>12 January 2024</t>
   </si>
   <si>
     <t>source ID</t>
@@ -427,6 +448,12 @@
     <t>AML.T0020</t>
   </si>
   <si>
+    <t>AML.T0024</t>
+  </si>
+  <si>
+    <t>AML.T0040</t>
+  </si>
+  <si>
     <t>AML.T0007</t>
   </si>
   <si>
@@ -439,6 +466,12 @@
     <t>AML.T0002.001</t>
   </si>
   <si>
+    <t>AML.T0002</t>
+  </si>
+  <si>
+    <t>AML.T0004</t>
+  </si>
+  <si>
     <t>AML.T0003</t>
   </si>
   <si>
@@ -469,9 +502,6 @@
     <t>AML.T0034</t>
   </si>
   <si>
-    <t>AML.T0024</t>
-  </si>
-  <si>
     <t>AML.T0046</t>
   </si>
   <si>
@@ -487,6 +517,9 @@
     <t>AML.T0019</t>
   </si>
   <si>
+    <t>AML.T0018</t>
+  </si>
+  <si>
     <t>Black-Box Optimization</t>
   </si>
   <si>
@@ -526,6 +559,12 @@
     <t>Poison Training Data</t>
   </si>
   <si>
+    <t>Exfiltration via ML Inference API</t>
+  </si>
+  <si>
+    <t>ML Model Inference API Access</t>
+  </si>
+  <si>
     <t>Discover ML Artifacts</t>
   </si>
   <si>
@@ -538,6 +577,12 @@
     <t>Models</t>
   </si>
   <si>
+    <t>Acquire Public ML Artifacts</t>
+  </si>
+  <si>
+    <t>Search Application Repositories</t>
+  </si>
+  <si>
     <t>Search Victim-Owned Websites</t>
   </si>
   <si>
@@ -568,9 +613,6 @@
     <t>Cost Harvesting</t>
   </si>
   <si>
-    <t>Exfiltration via ML Inference API</t>
-  </si>
-  <si>
     <t>Spamming ML System with Chaff Data</t>
   </si>
   <si>
@@ -586,103 +628,118 @@
     <t>Publish Poisoned Datasets</t>
   </si>
   <si>
-    <t>attack-pattern--79cdc11c-2ca9-4a6a-96a0-18bd84943086</t>
-  </si>
-  <si>
-    <t>attack-pattern--1cc7f877-cb60-419a-bd1e-32b704b534d0</t>
-  </si>
-  <si>
-    <t>attack-pattern--8bcf7648-2683-421d-b623-bc539de59cb3</t>
-  </si>
-  <si>
-    <t>attack-pattern--bb747632-d988-45ff-9cb3-97d827b4d9db</t>
-  </si>
-  <si>
-    <t>attack-pattern--4627c4e6-fb06-4bfa-add5-dc46e0043aff</t>
-  </si>
-  <si>
-    <t>attack-pattern--2792e1f0-3132-4876-878d-a900b8a40e7d</t>
-  </si>
-  <si>
-    <t>attack-pattern--d52b913b-808c-461d-8969-94cd5c9fe07b</t>
-  </si>
-  <si>
-    <t>attack-pattern--666f4d33-1a62-4ad7-9bf9-6387cd3f1fd7</t>
-  </si>
-  <si>
-    <t>attack-pattern--481486ed-846c-43ce-931b-86b8a18556b0</t>
-  </si>
-  <si>
-    <t>attack-pattern--68034561-a079-4052-9b64-427bfcff76ff</t>
-  </si>
-  <si>
-    <t>attack-pattern--0d002b6b-d006-4aab-a7f9-fa69f4a1e675</t>
-  </si>
-  <si>
-    <t>attack-pattern--822cb1e2-f35f-4b35-a650-59b7770d4abc</t>
-  </si>
-  <si>
-    <t>attack-pattern--6945b742-f1d5-4a83-ba4a-d0e0de6620c3</t>
-  </si>
-  <si>
-    <t>attack-pattern--529fac49-5f88-4a3c-829f-eb50cb90bcf1</t>
-  </si>
-  <si>
-    <t>attack-pattern--b67fc223-fecf-4ee6-9de7-9392d9f04060</t>
-  </si>
-  <si>
-    <t>attack-pattern--6a7f4fc2-272b-4f86-b137-70fa3e239f58</t>
-  </si>
-  <si>
-    <t>attack-pattern--292ebe33-addc-4fe7-b2a9-4856293c4c96</t>
-  </si>
-  <si>
-    <t>attack-pattern--d93b2175-90a8-4250-821f-dcc3bbbe194c</t>
-  </si>
-  <si>
-    <t>attack-pattern--229ead06-da1e-443c-8ff1-e57a3ae0eb61</t>
-  </si>
-  <si>
-    <t>attack-pattern--afcd723a-e5ff-4c09-8f72-fe16f7345af7</t>
-  </si>
-  <si>
-    <t>attack-pattern--51c95da5-d7f1-4b57-9229-869b80305b37</t>
-  </si>
-  <si>
-    <t>attack-pattern--8a115a02-2b88-4a3e-9212-a39dc086320b</t>
-  </si>
-  <si>
-    <t>attack-pattern--65c5e3b8-9296-46a2-ae7d-1b68a79cbe54</t>
-  </si>
-  <si>
-    <t>attack-pattern--b5d1fd4f-861f-43e0-b1ca-ee8a3b47f7e1</t>
-  </si>
-  <si>
-    <t>attack-pattern--83c5ba15-5312-4c7d-bbb4-f9c4f2c6ffca</t>
-  </si>
-  <si>
-    <t>attack-pattern--569d6edd-0140-4ab2-97b1-3635d62f40cc</t>
-  </si>
-  <si>
-    <t>attack-pattern--ba5645e5-d1ab-4f1f-8b82-cb0792543fa8</t>
-  </si>
-  <si>
-    <t>attack-pattern--3b829988-8bdb-4c4e-a4dd-500a3d3fd3e4</t>
-  </si>
-  <si>
-    <t>attack-pattern--3247b43f-1888-4158-b3da-5b7c7dfaa4e2</t>
-  </si>
-  <si>
-    <t>attack-pattern--e0958449-a880-4410-bbb1-fa102030a883</t>
-  </si>
-  <si>
-    <t>attack-pattern--5e8e4108-beb6-479a-a617-323d425e5d03</t>
-  </si>
-  <si>
-    <t>attack-pattern--b6697dbf-3e3f-41ce-a212-361d1c0ca0e9</t>
-  </si>
-  <si>
-    <t>attack-pattern--0799f2f2-1038-4391-ba1f-4117595db45a</t>
+    <t>Backdoor ML Model</t>
+  </si>
+  <si>
+    <t>attack-pattern--1a328de1-1327-4ed3-98c0-0a2e9da558c0</t>
+  </si>
+  <si>
+    <t>attack-pattern--50d26291-d3ac-451f-b051-3159ba12f39e</t>
+  </si>
+  <si>
+    <t>attack-pattern--501caefa-6ffd-496b-be90-c644e9dc8037</t>
+  </si>
+  <si>
+    <t>attack-pattern--dbd25a74-6024-4e30-9ba2-20428a447b70</t>
+  </si>
+  <si>
+    <t>attack-pattern--2308375d-743a-49ea-9fba-509a14e4a5e2</t>
+  </si>
+  <si>
+    <t>attack-pattern--7f8b61c0-e4a2-4a21-851a-7f8041a929c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--3d0968cd-f067-4b8b-a451-df6c521d3dab</t>
+  </si>
+  <si>
+    <t>attack-pattern--acebf60b-3f22-4c75-a74f-4da8788fae17</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0205c5e-9527-4020-8927-26c855a45008</t>
+  </si>
+  <si>
+    <t>attack-pattern--0c25c07a-0800-4635-ac9c-fa3fbd0b571d</t>
+  </si>
+  <si>
+    <t>attack-pattern--69268719-393f-41d3-801e-18d607474b01</t>
+  </si>
+  <si>
+    <t>attack-pattern--9d8044ed-6082-44d8-bc62-559f9296b580</t>
+  </si>
+  <si>
+    <t>attack-pattern--2f154be7-a9fa-4c5c-b446-5c4ca11049d7</t>
+  </si>
+  <si>
+    <t>attack-pattern--37d808a2-ca53-4b8f-a5c9-1dfc4bc59d6f</t>
+  </si>
+  <si>
+    <t>attack-pattern--32287d8a-ac22-4d9f-a4ba-a55566fa8b36</t>
+  </si>
+  <si>
+    <t>attack-pattern--61527318-c59b-4097-840c-adf9961bad42</t>
+  </si>
+  <si>
+    <t>attack-pattern--a0da3f30-9270-418f-834e-7c79bed1065e</t>
+  </si>
+  <si>
+    <t>attack-pattern--0ba8d50c-bbcc-4b6b-ac2d-0d78fdae0422</t>
+  </si>
+  <si>
+    <t>attack-pattern--2fb39d9e-2363-4672-a3c8-4c6c63c6b94c</t>
+  </si>
+  <si>
+    <t>attack-pattern--99ee109d-c2d0-48cc-9960-d1d2a9ecd0ad</t>
+  </si>
+  <si>
+    <t>attack-pattern--c46f18fa-cad2-4d24-8e9a-aa38bb49ed0d</t>
+  </si>
+  <si>
+    <t>attack-pattern--6d5ae8f7-0011-49bb-be21-6875ab3e0826</t>
+  </si>
+  <si>
+    <t>attack-pattern--92c88822-861d-4b04-b68d-56cd34ba35e1</t>
+  </si>
+  <si>
+    <t>attack-pattern--8e2247ab-ddb9-4105-9bca-7dc756987394</t>
+  </si>
+  <si>
+    <t>attack-pattern--a562f5cf-fa56-42cb-8bca-3f39c9c8277e</t>
+  </si>
+  <si>
+    <t>attack-pattern--c3e09f44-3ff9-4db9-bf26-6a42bbcfbbb1</t>
+  </si>
+  <si>
+    <t>attack-pattern--a5f36bcf-f003-4bde-bd38-873ecb1160c6</t>
+  </si>
+  <si>
+    <t>attack-pattern--26e0f122-c1ef-4d64-b20a-5cd81b1a1979</t>
+  </si>
+  <si>
+    <t>attack-pattern--1b7c868f-f99c-4b9c-98c2-fe8608cc39c4</t>
+  </si>
+  <si>
+    <t>attack-pattern--4af77ce4-5699-4bc0-85e5-9a7b115a9fda</t>
+  </si>
+  <si>
+    <t>attack-pattern--35bd4e6e-9056-4115-9395-81735cfd1761</t>
+  </si>
+  <si>
+    <t>attack-pattern--b7dfb4dd-5325-4485-9b63-d57a63bd62d5</t>
+  </si>
+  <si>
+    <t>attack-pattern--12b09c3e-46a9-4647-9df3-68cfde54ba21</t>
+  </si>
+  <si>
+    <t>attack-pattern--e6771085-d926-419c-831c-64cca5258442</t>
+  </si>
+  <si>
+    <t>attack-pattern--21a73c23-60b5-46bc-b480-afa101fbac5f</t>
+  </si>
+  <si>
+    <t>attack-pattern--481a4781-a4a9-473f-9ace-fc16e498bc27</t>
+  </si>
+  <si>
+    <t>attack-pattern--f4242e1a-203a-4b26-8a7f-967458b3751a</t>
   </si>
   <si>
     <t>technique</t>
@@ -728,6 +785,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Adversaries can use unrestricted API access to build a proxy training dataset and reveal private information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adversaries can use unrestricted API access to gain information about a production system, stage attacks, and introduce malicious data to the system.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Protect machine learning artifacts from adversaries who gather private information to target and improve attacks.
 </t>
   </si>
@@ -753,6 +818,10 @@
   </si>
   <si>
     <t xml:space="preserve">Published datasets can be a target for poisoning attacks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit the release of sensitive information in the metadata of deployed systems and publicly available applications.
 </t>
   </si>
   <si>
@@ -880,206 +949,225 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Techniques such as neural payload injection can make model artifacts vulnerable to adversarial queries. Scan model artifacts for signs of compromise.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scan ML artifacts for vulnerabilities before execution.
 </t>
   </si>
   <si>
-    <t>relationship--3fc4742d-7002-4250-8af4-7e73eff7f5cd</t>
-  </si>
-  <si>
-    <t>relationship--10eb804b-3b7d-4cb8-8b0e-2c482e0c710e</t>
-  </si>
-  <si>
-    <t>relationship--212ba9af-2ce5-4e9e-810e-a2cb3e5188f9</t>
-  </si>
-  <si>
-    <t>relationship--9bb8ded8-9ae7-4ff0-9205-622bc54766e3</t>
-  </si>
-  <si>
-    <t>relationship--92805fa2-39b0-4116-9e66-3ceea6b6aefa</t>
-  </si>
-  <si>
-    <t>relationship--bbbf70fd-61a4-4517-9f77-4b01f579e164</t>
-  </si>
-  <si>
-    <t>relationship--3215a3e5-2ef6-4ace-98fb-0feb24481fe9</t>
-  </si>
-  <si>
-    <t>relationship--1584d705-c71d-4d87-8ee4-5714ac85586c</t>
-  </si>
-  <si>
-    <t>relationship--f4520ca2-df4a-4921-aea3-651e4789b235</t>
-  </si>
-  <si>
-    <t>relationship--0cb81d07-3cd1-4ea4-8a14-004b5ea237a2</t>
-  </si>
-  <si>
-    <t>relationship--71848eba-b7d2-4623-b9af-188424da70d5</t>
-  </si>
-  <si>
-    <t>relationship--ec3ccfc9-c032-4983-87b2-4417e6f16191</t>
-  </si>
-  <si>
-    <t>relationship--d5c1790f-d168-45b8-920b-c3895b71c8f8</t>
-  </si>
-  <si>
-    <t>relationship--3f2e740f-fca4-4593-822d-383ae976518f</t>
-  </si>
-  <si>
-    <t>relationship--097b6f2c-1ce6-4d7b-9fa3-47f87cdf7463</t>
-  </si>
-  <si>
-    <t>relationship--b30a5ae0-b768-4c89-83d5-3d55fd88f347</t>
-  </si>
-  <si>
-    <t>relationship--938ab919-d333-4c5e-8c96-7603724bb304</t>
-  </si>
-  <si>
-    <t>relationship--e134c2b8-403d-4fbb-8da8-bb44a5403297</t>
-  </si>
-  <si>
-    <t>relationship--6b9e0fe0-2503-4e15-bc78-8d5051a33849</t>
-  </si>
-  <si>
-    <t>relationship--7a30074c-9c63-4eae-8e85-646ad8d0429c</t>
-  </si>
-  <si>
-    <t>relationship--ccfb7ef5-05ae-458b-bee5-db8801e96650</t>
-  </si>
-  <si>
-    <t>relationship--b4fdbd9a-9cc6-4aeb-95b0-6c708f92ca4f</t>
-  </si>
-  <si>
-    <t>relationship--0622851a-94e0-4902-b1d7-b3e08d634e51</t>
-  </si>
-  <si>
-    <t>relationship--e7ccce8f-188a-4282-a3c0-1965722c0e52</t>
-  </si>
-  <si>
-    <t>relationship--9481f612-990e-40d4-9e13-bdb9d30390a3</t>
-  </si>
-  <si>
-    <t>relationship--4d100ba1-3b4b-4c94-9fe3-b62561e1f639</t>
-  </si>
-  <si>
-    <t>relationship--1e9e9aff-bd46-42a8-80df-9dc25aeb10ac</t>
-  </si>
-  <si>
-    <t>relationship--6dd2478c-d171-4cb4-a77c-5a5859fd21a0</t>
-  </si>
-  <si>
-    <t>relationship--a6508e7d-7659-41af-b4cd-c51c727a4d5c</t>
-  </si>
-  <si>
-    <t>relationship--6ffb6589-ca5d-4a92-8176-b569489f3162</t>
-  </si>
-  <si>
-    <t>relationship--273cf6fc-a571-42f1-a360-0d5dac39dd3f</t>
-  </si>
-  <si>
-    <t>relationship--3705de55-eb57-4303-ba2e-985e2fbcd7b8</t>
-  </si>
-  <si>
-    <t>relationship--f5e4fdf8-e169-45e4-89ba-6e1fd97ddf69</t>
-  </si>
-  <si>
-    <t>relationship--e5c1ceba-4a9a-422e-acc3-f10cd68944f8</t>
-  </si>
-  <si>
-    <t>relationship--afbfc3e2-bd98-46df-86f4-ec3471c3e2f4</t>
-  </si>
-  <si>
-    <t>relationship--167acfb9-6535-4fe8-89a1-cd20b22163e6</t>
-  </si>
-  <si>
-    <t>relationship--da4b8771-3e0d-4698-ac26-40057be4fbf2</t>
-  </si>
-  <si>
-    <t>relationship--e4c8c36d-28e4-425c-b9d4-e11e0fa8a3d5</t>
-  </si>
-  <si>
-    <t>relationship--774b5a4a-f4a6-4319-b917-673e33de42e5</t>
-  </si>
-  <si>
-    <t>relationship--0cc64ff9-22f8-4f69-8013-be2b49069e06</t>
-  </si>
-  <si>
-    <t>relationship--b7e33e0e-cb4c-4270-89e9-4c80e2a05159</t>
-  </si>
-  <si>
-    <t>relationship--f480a896-9f89-40db-ab8c-1a796cfda381</t>
-  </si>
-  <si>
-    <t>relationship--53f472e3-ecca-4d76-8c40-ef6cc7b4c8ca</t>
-  </si>
-  <si>
-    <t>relationship--42327e33-e1b4-4d12-84ed-1e9a498fc1c9</t>
-  </si>
-  <si>
-    <t>relationship--1ee9cdd3-d249-442f-a68d-6b1e9a53bbb5</t>
-  </si>
-  <si>
-    <t>relationship--9e36773c-8d5d-4aa6-81ee-45efe0ad2d3c</t>
-  </si>
-  <si>
-    <t>relationship--5c201940-62fb-45fb-af94-b1c617b04094</t>
-  </si>
-  <si>
-    <t>relationship--446ee7d0-525e-4c0e-8bba-a5ba1c7673e7</t>
-  </si>
-  <si>
-    <t>relationship--8c4199e1-0a42-47eb-9a94-51306ec64d36</t>
-  </si>
-  <si>
-    <t>relationship--0552998f-3b18-4413-a914-c9333fc045b9</t>
-  </si>
-  <si>
-    <t>relationship--2b4b233a-b242-4e7a-931d-14419fda3c5b</t>
-  </si>
-  <si>
-    <t>relationship--1db899aa-ad3b-41f6-950f-b546aaef74bc</t>
-  </si>
-  <si>
-    <t>relationship--e2cb0916-94d1-4fa9-ae78-0470076d231c</t>
-  </si>
-  <si>
-    <t>relationship--8c4a003d-af46-46a5-90e5-9e74174df226</t>
-  </si>
-  <si>
-    <t>relationship--f1995705-a128-4976-9fe6-a6f255f11543</t>
-  </si>
-  <si>
-    <t>relationship--81a27728-9189-49dd-adf2-a2baeb5daa3e</t>
-  </si>
-  <si>
-    <t>relationship--15efcf7a-41b7-4b3f-951c-85739bdec15a</t>
-  </si>
-  <si>
-    <t>relationship--e5f75ac7-9b0a-4e8d-8fb6-335962831a8f</t>
-  </si>
-  <si>
-    <t>relationship--f12afb3e-1d7b-43d9-a0ee-ead6b8074e03</t>
-  </si>
-  <si>
-    <t>relationship--8fcd5516-b5c2-456c-8188-a54cf1c924eb</t>
-  </si>
-  <si>
-    <t>relationship--cc9d9b40-4443-4f0c-8804-a4d65381dcff</t>
-  </si>
-  <si>
-    <t>relationship--e6550923-48de-4a2d-b9bc-c9eff3417584</t>
-  </si>
-  <si>
-    <t>relationship--c9aa246f-8155-4425-a10b-f0661cc2c934</t>
-  </si>
-  <si>
-    <t>relationship--7ed526db-2c2b-4faa-a9c8-9a3a8f6709ef</t>
-  </si>
-  <si>
-    <t>relationship--cba7d954-f13e-44f9-b43a-54a9e348f494</t>
-  </si>
-  <si>
-    <t>relationship--84319376-7e07-4bfb-a033-e0415548158a</t>
+    <t>relationship--45d8a104-8d95-4d8a-b30d-6f60b8a4624d</t>
+  </si>
+  <si>
+    <t>relationship--485ea34d-43c5-4a69-bc72-fd324783630f</t>
+  </si>
+  <si>
+    <t>relationship--3a6b2dd2-f55b-4c45-9535-494816b69cf7</t>
+  </si>
+  <si>
+    <t>relationship--f56be693-09d7-4305-a17c-81dfce080d3f</t>
+  </si>
+  <si>
+    <t>relationship--75059a1b-2db3-4e52-a96c-1fc59fd8604e</t>
+  </si>
+  <si>
+    <t>relationship--a9bc68d2-749f-4ee8-8e65-2901311f4269</t>
+  </si>
+  <si>
+    <t>relationship--275350d2-bc6f-4ecc-aaf7-051f8a80e03e</t>
+  </si>
+  <si>
+    <t>relationship--d49e8b82-87ee-4bb2-a8b7-f9b47722fc5c</t>
+  </si>
+  <si>
+    <t>relationship--b1c30f07-9152-4fba-8718-1c9b0b8555bb</t>
+  </si>
+  <si>
+    <t>relationship--9c682177-2857-46f1-b284-f778c7e41bb1</t>
+  </si>
+  <si>
+    <t>relationship--9b105848-aeff-4e9f-9550-079ae1d94c98</t>
+  </si>
+  <si>
+    <t>relationship--080ecf88-043b-482f-91cf-7307864d86f8</t>
+  </si>
+  <si>
+    <t>relationship--2222eec9-46ac-4fbc-b78b-3a9cf10786ec</t>
+  </si>
+  <si>
+    <t>relationship--e0634ec1-c6fe-4e4a-b4ba-54b7f2c509b5</t>
+  </si>
+  <si>
+    <t>relationship--15858ff6-c58c-4259-a2db-49b59cad4b70</t>
+  </si>
+  <si>
+    <t>relationship--bec5ba94-3953-4ee5-85d1-b4e7f1ba9c8b</t>
+  </si>
+  <si>
+    <t>relationship--122896d2-f3d0-471c-8426-6719f25a29fb</t>
+  </si>
+  <si>
+    <t>relationship--3140f60b-52d5-42af-b49b-815ea982fd61</t>
+  </si>
+  <si>
+    <t>relationship--cfcbd4c5-949f-4523-9734-0cfa719bdc4a</t>
+  </si>
+  <si>
+    <t>relationship--dbffa265-59ed-4cd1-b357-594a153258db</t>
+  </si>
+  <si>
+    <t>relationship--3df30cde-81e4-40fe-9f75-ac98fb5ac670</t>
+  </si>
+  <si>
+    <t>relationship--079cd236-9778-40cf-82b2-08d2e1d852ed</t>
+  </si>
+  <si>
+    <t>relationship--a7515cfb-dde7-46a3-90d0-e70e058b2e24</t>
+  </si>
+  <si>
+    <t>relationship--7fddcc81-d44a-4afd-ae87-c55dd372cd2b</t>
+  </si>
+  <si>
+    <t>relationship--eac3b27a-7183-40b0-9883-4b55026ae23e</t>
+  </si>
+  <si>
+    <t>relationship--70bc91d9-d02d-4550-bd4f-d0a17028e884</t>
+  </si>
+  <si>
+    <t>relationship--15248543-08b6-4d25-9021-94e8a726f0af</t>
+  </si>
+  <si>
+    <t>relationship--4ccc836c-7e08-4536-b3cc-ccd4624956d9</t>
+  </si>
+  <si>
+    <t>relationship--97ee6efd-0f3d-4900-a063-cb2e2d0103a3</t>
+  </si>
+  <si>
+    <t>relationship--f6cd8f0e-a579-4cd0-8433-f2f8542e0895</t>
+  </si>
+  <si>
+    <t>relationship--170cdbcf-5fca-4962-a342-eb87e564230f</t>
+  </si>
+  <si>
+    <t>relationship--70a37abc-eda5-41fa-ad85-3b275d14c44e</t>
+  </si>
+  <si>
+    <t>relationship--f14a7079-2fc2-4014-8657-c6cae0ab46dd</t>
+  </si>
+  <si>
+    <t>relationship--21726d00-314d-488d-a701-37f3a7cad392</t>
+  </si>
+  <si>
+    <t>relationship--201e25e4-532a-498f-9b14-668f76d59b3a</t>
+  </si>
+  <si>
+    <t>relationship--dc5d285e-5380-410f-bac5-1d26e9a000bf</t>
+  </si>
+  <si>
+    <t>relationship--54d57d25-d17d-499b-8207-4b551856eee5</t>
+  </si>
+  <si>
+    <t>relationship--94b9cbe2-471b-4f74-83d5-b07e9b34e73c</t>
+  </si>
+  <si>
+    <t>relationship--81e91c65-8f80-4c08-9911-b18f5e73de30</t>
+  </si>
+  <si>
+    <t>relationship--08b37c27-8b43-41c4-baef-6f63686ed15b</t>
+  </si>
+  <si>
+    <t>relationship--cd08726b-d6ec-4d86-bcbc-b9febb579776</t>
+  </si>
+  <si>
+    <t>relationship--e8f19731-250f-4c7b-b875-d808a183db4f</t>
+  </si>
+  <si>
+    <t>relationship--98d7ef15-bfbd-4241-8bcd-4811d1ba4b0f</t>
+  </si>
+  <si>
+    <t>relationship--cef2f25a-2a1f-46e7-90f9-3fef76d47cd9</t>
+  </si>
+  <si>
+    <t>relationship--08c604c4-67f4-4cd9-9b1e-f2fe02fade78</t>
+  </si>
+  <si>
+    <t>relationship--d1a91693-f49d-4729-9b8c-ad729af76757</t>
+  </si>
+  <si>
+    <t>relationship--f2db5ba4-32bc-47b2-aa0b-d486aec56228</t>
+  </si>
+  <si>
+    <t>relationship--c9acb5b9-d119-4f29-98d5-f16c2104a585</t>
+  </si>
+  <si>
+    <t>relationship--0f6d2793-1649-4b26-a709-400f5df0b96a</t>
+  </si>
+  <si>
+    <t>relationship--cc3ef7e3-9314-4900-9f29-05f9604f95ff</t>
+  </si>
+  <si>
+    <t>relationship--cdfc8b8c-4975-42b4-bbe6-9bbf5b06cc41</t>
+  </si>
+  <si>
+    <t>relationship--9dbe1b38-dc7e-439f-9c4b-2aa81ee60099</t>
+  </si>
+  <si>
+    <t>relationship--7c3ec45f-3664-403e-a436-f419bde4e78f</t>
+  </si>
+  <si>
+    <t>relationship--5490e196-2349-4728-ad1b-833d9297944f</t>
+  </si>
+  <si>
+    <t>relationship--d474071e-8a20-4d44-9688-db0d263b65b5</t>
+  </si>
+  <si>
+    <t>relationship--5e999d74-77dd-4918-9e44-b3cc98ff9a5c</t>
+  </si>
+  <si>
+    <t>relationship--42e583c2-7691-48cf-8867-e17379176324</t>
+  </si>
+  <si>
+    <t>relationship--98bc942a-8688-429c-a8f6-016458812dde</t>
+  </si>
+  <si>
+    <t>relationship--335c5512-9a7f-4f75-acd6-cfd1c08672ae</t>
+  </si>
+  <si>
+    <t>relationship--b618c81e-8e49-4dd2-8fa9-82bdcaa660df</t>
+  </si>
+  <si>
+    <t>relationship--6abb1328-8539-4443-87ee-6ca169e5e5f3</t>
+  </si>
+  <si>
+    <t>relationship--d1ad589c-8f51-4409-996d-cb64e3faf69c</t>
+  </si>
+  <si>
+    <t>relationship--5ea7f354-6dc8-40da-bb82-9e0614aa6df2</t>
+  </si>
+  <si>
+    <t>relationship--c67a0932-1327-41b0-b053-9e3899252b36</t>
+  </si>
+  <si>
+    <t>relationship--a988d190-aee2-496d-8241-a900e5f8cb91</t>
+  </si>
+  <si>
+    <t>relationship--af68db01-f426-4c2a-95af-84c060699689</t>
+  </si>
+  <si>
+    <t>relationship--1fa939f4-a10f-4008-85cd-e32b2008439f</t>
+  </si>
+  <si>
+    <t>relationship--f2057dac-ef5c-449f-af81-26c39e482f8e</t>
+  </si>
+  <si>
+    <t>relationship--65888216-8771-4c81-afc3-30f7fd90f2c8</t>
+  </si>
+  <si>
+    <t>relationship--ff7cc99e-c143-4639-9748-a614cdd6f35c</t>
+  </si>
+  <si>
+    <t>relationship--042e344a-bf2d-4b15-a1d1-47e2b166fc43</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1487,22 +1575,22 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1510,22 +1598,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1533,22 +1621,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1556,22 +1644,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1579,22 +1667,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1602,22 +1690,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1625,22 +1713,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1648,22 +1736,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1671,22 +1759,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1694,22 +1782,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1717,22 +1805,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1740,22 +1828,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1763,22 +1851,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1786,22 +1874,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1809,22 +1897,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1832,22 +1920,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1855,22 +1943,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1878,22 +1966,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1901,22 +1989,45 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1940,6 +2051,7 @@
     <hyperlink ref="E18" r:id="rId17"/>
     <hyperlink ref="E19" r:id="rId18"/>
     <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1947,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1955,34 +2067,34 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
@@ -1999,40 +2111,40 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="L2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2040,40 +2152,40 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2081,40 +2193,40 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2122,40 +2234,40 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J5" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K5" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="L5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2163,40 +2275,40 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="I6" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2204,40 +2316,40 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="L7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2245,40 +2357,40 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K8" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2286,40 +2398,40 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="I9" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J9" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K9" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2327,40 +2439,40 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2368,40 +2480,40 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J11" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K11" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2409,40 +2521,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2450,40 +2562,40 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="I13" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K13" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="L13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2491,40 +2603,40 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I14" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J14" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K14" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2532,40 +2644,40 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H15" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="I15" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J15" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="K15" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="L15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2573,40 +2685,40 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="I16" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J16" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K16" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2614,81 +2726,81 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J17" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="L17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="I18" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J18" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="K18" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2696,40 +2808,40 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J19" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="K19" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2737,81 +2849,81 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K20" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="L20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="K21" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="L21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2819,40 +2931,40 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s">
         <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="K22" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="L22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2860,81 +2972,81 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H23" t="s">
         <v>198</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="H24" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="L24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2942,40 +3054,40 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2983,40 +3095,40 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3024,40 +3136,40 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3065,40 +3177,40 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3106,81 +3218,81 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I29" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="H30" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3188,122 +3300,122 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H33" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="I33" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3311,40 +3423,40 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3352,122 +3464,122 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I35" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G37" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H37" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J37" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3475,163 +3587,163 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="H38" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J38" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="K38" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G39" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H39" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J39" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="K39" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M39" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="H40" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="I40" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J40" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K40" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M40" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G41" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="I41" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="K41" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="L41" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3639,286 +3751,286 @@
         <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H42" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I42" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="K42" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I43" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="K43" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="L43" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H44" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="I44" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K44" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M44" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H45" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I45" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J45" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="K45" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H46" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J46" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K46" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="L46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M46" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H47" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I47" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J47" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K47" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I48" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J48" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K48" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3926,40 +4038,40 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="H49" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="I49" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J49" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="K49" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="L49" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M49" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3967,40 +4079,40 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="I50" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J50" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K50" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4008,81 +4120,81 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H51" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="I51" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J51" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="K51" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="L51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H52" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="I52" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J52" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="K52" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="L52" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M52" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4090,40 +4202,40 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="I53" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J53" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="K53" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M53" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4131,40 +4243,40 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="G54" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H54" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J54" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K54" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4172,81 +4284,81 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G55" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="I55" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J55" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="K55" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="L55" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M55" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="H56" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="I56" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="K56" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="L56" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M56" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4254,40 +4366,40 @@
         <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H57" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I57" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="K57" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="L57" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M57" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4295,204 +4407,204 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="G58" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="H58" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J58" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="K58" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="L58" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G59" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H59" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="I59" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J59" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K59" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="L59" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M59" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="I60" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J60" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="K60" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="L60" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M60" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H61" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I61" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J61" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="K61" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="L61" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M61" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="H62" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="I62" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J62" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K62" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="L62" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M62" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4500,81 +4612,81 @@
         <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
         <v>127</v>
       </c>
       <c r="G63" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H63" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I63" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J63" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="K63" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="L63" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
         <v>44</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G64" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="I64" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J64" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K64" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="L64" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M64" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4582,40 +4694,40 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I65" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J65" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K65" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="L65" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M65" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4623,81 +4735,286 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G66" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H66" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="I66" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="J66" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K66" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="L66" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>45</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" t="s">
+        <v>206</v>
+      </c>
+      <c r="I67" t="s">
+        <v>232</v>
+      </c>
+      <c r="J67" t="s">
+        <v>279</v>
+      </c>
+      <c r="K67" t="s">
+        <v>350</v>
+      </c>
+      <c r="L67" t="s">
+        <v>108</v>
+      </c>
+      <c r="M67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" t="s">
         <v>155</v>
       </c>
-      <c r="H67" t="s">
-        <v>188</v>
-      </c>
-      <c r="I67" t="s">
-        <v>215</v>
-      </c>
-      <c r="J67" t="s">
-        <v>263</v>
-      </c>
-      <c r="K67" t="s">
-        <v>329</v>
-      </c>
-      <c r="L67" t="s">
-        <v>103</v>
-      </c>
-      <c r="M67" t="s">
-        <v>103</v>
+      <c r="G68" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" t="s">
+        <v>232</v>
+      </c>
+      <c r="J68" t="s">
+        <v>280</v>
+      </c>
+      <c r="K68" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" t="s">
+        <v>108</v>
+      </c>
+      <c r="M68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" t="s">
+        <v>230</v>
+      </c>
+      <c r="I69" t="s">
+        <v>232</v>
+      </c>
+      <c r="J69" t="s">
+        <v>281</v>
+      </c>
+      <c r="K69" t="s">
+        <v>352</v>
+      </c>
+      <c r="L69" t="s">
+        <v>108</v>
+      </c>
+      <c r="M69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" t="s">
+        <v>201</v>
+      </c>
+      <c r="I70" t="s">
+        <v>232</v>
+      </c>
+      <c r="J70" t="s">
+        <v>282</v>
+      </c>
+      <c r="K70" t="s">
+        <v>353</v>
+      </c>
+      <c r="L70" t="s">
+        <v>108</v>
+      </c>
+      <c r="M70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" t="s">
+        <v>157</v>
+      </c>
+      <c r="G71" t="s">
+        <v>194</v>
+      </c>
+      <c r="H71" t="s">
+        <v>231</v>
+      </c>
+      <c r="I71" t="s">
+        <v>232</v>
+      </c>
+      <c r="J71" t="s">
+        <v>283</v>
+      </c>
+      <c r="K71" t="s">
+        <v>354</v>
+      </c>
+      <c r="L71" t="s">
+        <v>108</v>
+      </c>
+      <c r="M71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" t="s">
+        <v>127</v>
+      </c>
+      <c r="G72" t="s">
+        <v>164</v>
+      </c>
+      <c r="H72" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" t="s">
+        <v>232</v>
+      </c>
+      <c r="J72" t="s">
+        <v>284</v>
+      </c>
+      <c r="K72" t="s">
+        <v>355</v>
+      </c>
+      <c r="L72" t="s">
+        <v>108</v>
+      </c>
+      <c r="M72" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
